--- a/outputs-GTDB-r202/f__Bacteroidaceae.xlsx
+++ b/outputs-GTDB-r202/f__Bacteroidaceae.xlsx
@@ -960,7 +960,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>g__UBA4334</t>
+          <t>g__UBA4334(reject)</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotellamassilia(reject)</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__F0040(reject)</t>
         </is>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__F0040(reject)</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>g__UBA3839</t>
+          <t>g__UBA3839(reject)</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="AJ84" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="AJ85" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="AJ87" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="AJ93" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -11864,7 +11864,7 @@
       </c>
       <c r="AJ98" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="AJ103" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="AJ104" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="AJ105" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="AJ106" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="AJ110" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="AJ119" t="inlineStr">
         <is>
-          <t>g__UBA3839</t>
+          <t>g__UBA3839(reject)</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="AJ122" t="inlineStr">
         <is>
-          <t>g__UBA4334</t>
+          <t>g__UBA4334(reject)</t>
         </is>
       </c>
     </row>
@@ -14996,7 +14996,7 @@
       </c>
       <c r="AJ125" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -16272,7 +16272,7 @@
       </c>
       <c r="AJ136" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotellamassilia(reject)</t>
         </is>
       </c>
     </row>
@@ -16388,7 +16388,7 @@
       </c>
       <c r="AJ137" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -16736,7 +16736,7 @@
       </c>
       <c r="AJ140" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -16852,7 +16852,7 @@
       </c>
       <c r="AJ141" t="inlineStr">
         <is>
-          <t>g__UBA4372</t>
+          <t>g__UBA4372(reject)</t>
         </is>
       </c>
     </row>
@@ -17084,7 +17084,7 @@
       </c>
       <c r="AJ143" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17316,7 @@
       </c>
       <c r="AJ145" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__F0040(reject)</t>
         </is>
       </c>
     </row>
@@ -17548,7 +17548,7 @@
       </c>
       <c r="AJ147" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="AJ157" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -18824,7 +18824,7 @@
       </c>
       <c r="AJ158" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -19288,7 +19288,7 @@
       </c>
       <c r="AJ162" t="inlineStr">
         <is>
-          <t>g__Prevotella</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
